--- a/bom/BOM_XY_STD.xlsx
+++ b/bom/BOM_XY_STD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01779A1C-655F-4C01-9688-200113359E2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CEEA9A-8D7A-4796-997D-F28D625090D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="186">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -97,27 +97,18 @@
     <t>30a1546a053248d89d0fe572a1a54e08</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Make</t>
   </si>
   <si>
     <t>4535e8c5ba964b5c8a79f14e461e9f3d</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>MotorBracket_LEFT_Body (1)</t>
   </si>
   <si>
     <t>377863e0d0dd430ba797ffa59b6f7249</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>MotorCover_BODY_LEFT</t>
   </si>
   <si>
@@ -487,9 +478,6 @@
     <t>a3daae66fe74418e91c3738b1c9c0c4b</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>M3X16_CapScrew_92290A120</t>
   </si>
   <si>
@@ -499,9 +487,6 @@
     <t>9da8e196691a4c46938397f353fcb8d3</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>Y_Carriage_LEFT_Body (1)</t>
   </si>
   <si>
@@ -581,6 +566,21 @@
   </si>
   <si>
     <t>https://www.thingiverse.com/thing:3532039/files</t>
+  </si>
+  <si>
+    <t>M3X2020_T-Nut</t>
+  </si>
+  <si>
+    <t>Nut, TSlot - M3X2020</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32917702848.html?spm=a2g0s.9042311.0.0.10194c4dtWXsMc</t>
+  </si>
+  <si>
+    <t>069175e752a89b48639d7e8c4b4fa7f8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qty 16 based on X&amp;Y Print size at 315.  Add Qty2 for every additional 5cm of Y axis over 315mm. </t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,6 +709,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -730,7 +736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -812,17 +818,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -909,7 +904,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -959,40 +954,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1001,22 +996,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1670,13 +1662,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1714,13 +1706,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1758,13 +1750,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2096,7 +2088,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1901825" y="23542625"/>
+          <a:off x="2333625" y="20234275"/>
           <a:ext cx="978388" cy="932688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2110,13 +2102,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2154,13 +2146,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2198,13 +2190,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2242,13 +2234,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2286,13 +2278,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2374,13 +2366,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2418,13 +2410,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2462,13 +2454,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2506,13 +2498,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2550,13 +2542,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2594,13 +2586,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2858,13 +2850,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2902,13 +2894,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2946,13 +2938,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2990,13 +2982,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3034,13 +3026,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3078,13 +3070,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3122,13 +3114,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3162,12 +3154,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1311275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1304925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42" descr="thumbnail_7.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B2B1C7C-60A2-4745-B0AF-389F0D2F9135}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3279775" y="22088475"/>
+          <a:ext cx="1174750" cy="1177925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9932D91-4E80-4625-9438-1B4634C35449}" name="Table1" displayName="Table1" ref="A1:K42" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:K42" xr:uid="{87DCFC6C-0A0A-47CD-88B0-C875758D491D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9932D91-4E80-4625-9438-1B4634C35449}" name="Table1" displayName="Table1" ref="A1:K43" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:K43" xr:uid="{87DCFC6C-0A0A-47CD-88B0-C875758D491D}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F8AAF35A-6745-49CB-9C04-0FF2D42AF8A9}" name="SubAssy" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{477183BF-000F-4F47-BEA4-857BFFD9EDD2}" name="Category" dataDxfId="9"/>
@@ -3506,9 +3542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="84.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3520,7 +3558,7 @@
     <col min="6" max="6" width="56.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="82" style="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" hidden="1" customWidth="1"/>
@@ -3529,13 +3567,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>0</v>
@@ -3544,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>175</v>
+        <v>179</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>170</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>3</v>
@@ -3567,7 +3605,7 @@
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="24"/>
@@ -3576,15 +3614,15 @@
       <c r="F2" s="27"/>
       <c r="G2" s="24"/>
       <c r="H2" s="28"/>
-      <c r="I2" s="34"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="29">
@@ -3595,7 +3633,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>7</v>
@@ -3603,8 +3641,8 @@
       <c r="H3" s="14">
         <v>2</v>
       </c>
-      <c r="I3" s="35" t="s">
-        <v>176</v>
+      <c r="I3" s="34" t="s">
+        <v>171</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="15"/>
@@ -3614,9 +3652,9 @@
     </row>
     <row r="4" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -3627,16 +3665,16 @@
         <v>10</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>177</v>
+        <v>169</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>172</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="15"/>
@@ -3646,9 +3684,9 @@
     </row>
     <row r="5" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -3659,16 +3697,16 @@
         <v>17</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>177</v>
+        <v>168</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>172</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="15"/>
@@ -3678,9 +3716,9 @@
     </row>
     <row r="6" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -3691,7 +3729,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>7</v>
@@ -3699,8 +3737,8 @@
       <c r="H6" s="14">
         <v>1</v>
       </c>
-      <c r="I6" s="35" t="s">
-        <v>176</v>
+      <c r="I6" s="34" t="s">
+        <v>171</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="15"/>
@@ -3710,9 +3748,9 @@
     </row>
     <row r="7" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -3723,16 +3761,16 @@
         <v>10</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>177</v>
+        <v>168</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>172</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="15"/>
@@ -3742,20 +3780,20 @@
     </row>
     <row r="8" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>7</v>
@@ -3763,29 +3801,29 @@
       <c r="H8" s="14">
         <v>2</v>
       </c>
-      <c r="I8" s="35"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="11"/>
       <c r="K8" s="15"/>
       <c r="L8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>7</v>
@@ -3793,31 +3831,31 @@
       <c r="H9" s="14">
         <v>2</v>
       </c>
-      <c r="I9" s="35" t="s">
-        <v>182</v>
+      <c r="I9" s="34" t="s">
+        <v>177</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="15"/>
       <c r="L9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>7</v>
@@ -3825,65 +3863,65 @@
       <c r="H10" s="14">
         <v>1</v>
       </c>
-      <c r="I10" s="35"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>183</v>
+        <v>168</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>178</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="15"/>
       <c r="L11" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>7</v>
@@ -3891,29 +3929,29 @@
       <c r="H12" s="14">
         <v>6</v>
       </c>
-      <c r="I12" s="35"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="11"/>
       <c r="K12" s="15"/>
       <c r="L12" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>7</v>
@@ -3921,29 +3959,29 @@
       <c r="H13" s="14">
         <v>4</v>
       </c>
-      <c r="I13" s="35"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="11"/>
       <c r="K13" s="15"/>
       <c r="L13" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>7</v>
@@ -3951,51 +3989,51 @@
       <c r="H14" s="14">
         <v>2</v>
       </c>
-      <c r="I14" s="35"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="11"/>
       <c r="K14" s="15"/>
       <c r="L14" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>183</v>
+        <v>168</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>178</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="15"/>
       <c r="L15" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>12</v>
@@ -4013,7 +4051,7 @@
       <c r="H16" s="14">
         <v>47</v>
       </c>
-      <c r="I16" s="35"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="11"/>
       <c r="K16" s="15"/>
       <c r="L16" s="1" t="s">
@@ -4022,20 +4060,20 @@
     </row>
     <row r="17" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>7</v>
@@ -4043,29 +4081,29 @@
       <c r="H17" s="14">
         <v>10</v>
       </c>
-      <c r="I17" s="35"/>
+      <c r="I17" s="34"/>
       <c r="J17" s="11"/>
       <c r="K17" s="15"/>
       <c r="L17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>7</v>
@@ -4073,29 +4111,29 @@
       <c r="H18" s="14">
         <v>2</v>
       </c>
-      <c r="I18" s="35"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="11"/>
       <c r="K18" s="15"/>
       <c r="L18" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>7</v>
@@ -4103,29 +4141,29 @@
       <c r="H19" s="14">
         <v>5</v>
       </c>
-      <c r="I19" s="35"/>
+      <c r="I19" s="34"/>
       <c r="J19" s="11"/>
       <c r="K19" s="15"/>
       <c r="L19" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>7</v>
@@ -4133,29 +4171,29 @@
       <c r="H20" s="14">
         <v>6</v>
       </c>
-      <c r="I20" s="35"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="11"/>
       <c r="K20" s="15"/>
       <c r="L20" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>7</v>
@@ -4163,269 +4201,274 @@
       <c r="H21" s="14">
         <v>27</v>
       </c>
-      <c r="I21" s="35"/>
+      <c r="I21" s="34"/>
       <c r="J21" s="11"/>
       <c r="K21" s="15"/>
       <c r="L21" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="11"/>
+        <v>59</v>
+      </c>
       <c r="E22" s="13" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H22" s="14">
-        <v>27</v>
-      </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>183</v>
+      </c>
       <c r="L22" s="1" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="13" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="14">
-        <v>15</v>
-      </c>
-      <c r="I23" s="35"/>
+        <v>27</v>
+      </c>
+      <c r="I23" s="34"/>
       <c r="J23" s="11"/>
       <c r="K23" s="15"/>
       <c r="L23" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H24" s="14">
-        <v>2</v>
-      </c>
-      <c r="I24" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="I24" s="34"/>
       <c r="J24" s="11"/>
       <c r="K24" s="15"/>
       <c r="L24" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="13" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="14">
-        <v>5</v>
-      </c>
-      <c r="I25" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="I25" s="34"/>
       <c r="J25" s="11"/>
       <c r="K25" s="15"/>
       <c r="L25" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="13" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="14">
-        <v>4</v>
-      </c>
-      <c r="I26" s="35"/>
+        <v>5</v>
+      </c>
+      <c r="I26" s="34"/>
       <c r="J26" s="11"/>
       <c r="K26" s="15"/>
       <c r="L26" s="1" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="14">
-        <v>2</v>
-      </c>
-      <c r="I27" s="35"/>
+        <v>4</v>
+      </c>
+      <c r="I27" s="34"/>
       <c r="J27" s="11"/>
       <c r="K27" s="15"/>
       <c r="L27" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H28" s="14">
-        <v>6</v>
-      </c>
-      <c r="I28" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="I28" s="34"/>
       <c r="J28" s="11"/>
       <c r="K28" s="15"/>
       <c r="L28" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="13" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H29" s="14">
-        <v>4</v>
-      </c>
-      <c r="I29" s="35"/>
+        <v>6</v>
+      </c>
+      <c r="I29" s="34"/>
       <c r="J29" s="11"/>
       <c r="K29" s="15"/>
       <c r="L29" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="13" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>7</v>
@@ -4433,445 +4476,477 @@
       <c r="H30" s="14">
         <v>4</v>
       </c>
-      <c r="I30" s="35"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="11"/>
       <c r="K30" s="15"/>
       <c r="L30" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>25</v>
+        <v>162</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="13" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H31" s="14">
-        <v>1</v>
-      </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>136</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I31" s="34"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="15"/>
       <c r="L31" s="1" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>25</v>
+        <v>162</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="13" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H32" s="14">
         <v>1</v>
       </c>
-      <c r="I32" s="35"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>25</v>
+        <v>162</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H33" s="14">
         <v>1</v>
       </c>
-      <c r="I33" s="35"/>
+      <c r="I33" s="34"/>
       <c r="J33" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>25</v>
+        <v>162</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="13" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H34" s="14">
         <v>1</v>
       </c>
-      <c r="I34" s="35"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>25</v>
+        <v>162</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="13" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H35" s="14">
         <v>1</v>
       </c>
-      <c r="I35" s="35"/>
+      <c r="I35" s="34"/>
       <c r="J35" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>25</v>
+        <v>162</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H36" s="14">
         <v>1</v>
       </c>
-      <c r="I36" s="35"/>
+      <c r="I36" s="34"/>
       <c r="J36" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K36" s="39" t="s">
-        <v>185</v>
+        <v>132</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>25</v>
+        <v>162</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H37" s="14">
         <v>1</v>
       </c>
-      <c r="I37" s="35"/>
+      <c r="I37" s="34"/>
       <c r="J37" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="K37" s="38" t="s">
+        <v>180</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>25</v>
+        <v>162</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="13" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H38" s="14">
         <v>1</v>
       </c>
-      <c r="I38" s="35"/>
+      <c r="I38" s="34"/>
       <c r="J38" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>25</v>
+        <v>162</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H39" s="14">
         <v>1</v>
       </c>
-      <c r="I39" s="35"/>
+      <c r="I39" s="34"/>
       <c r="J39" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>25</v>
+        <v>162</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H40" s="14">
         <v>1</v>
       </c>
-      <c r="I40" s="35"/>
+      <c r="I40" s="34"/>
       <c r="J40" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>25</v>
+        <v>162</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="13" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H41" s="14">
         <v>1</v>
       </c>
-      <c r="I41" s="35"/>
+      <c r="I41" s="34"/>
       <c r="J41" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="20">
+      <c r="A42" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="14">
         <v>1</v>
       </c>
-      <c r="I42" s="36"/>
-      <c r="J42" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="K42" s="21" t="s">
-        <v>136</v>
+      <c r="I42" s="34"/>
+      <c r="J42" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="L42" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
         <v>162</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="20">
+        <v>1</v>
+      </c>
+      <c r="I43" s="35"/>
+      <c r="J43" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K41" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K42" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K40" r:id="rId4" xr:uid="{793A05AC-8C6B-46B3-9AFE-6B16CC608D5F}"/>
-    <hyperlink ref="K39" r:id="rId5" xr:uid="{F5822BB7-F026-4154-B5FE-D1A290BB5CB7}"/>
-    <hyperlink ref="K38" r:id="rId6" xr:uid="{70C82C78-38E9-4819-973D-C07B12609154}"/>
-    <hyperlink ref="K37" r:id="rId7" xr:uid="{D1F4B4D3-B9C2-44DC-8F3A-E316BB2F7BFD}"/>
-    <hyperlink ref="K35" r:id="rId8" xr:uid="{1CA0F2C7-5416-4733-A3BD-85EE61BCFCF3}"/>
-    <hyperlink ref="K34" r:id="rId9" xr:uid="{89B956CE-C12E-485D-8C44-E5375B55D44B}"/>
-    <hyperlink ref="K33" r:id="rId10" xr:uid="{B2773A57-4661-4510-8072-232DDA40AE63}"/>
-    <hyperlink ref="K32" r:id="rId11" xr:uid="{5D02B5D1-9B4B-4118-BBB1-12C3533E80A9}"/>
-    <hyperlink ref="K31" r:id="rId12" xr:uid="{4A79BDF9-F47F-4077-A70A-2A696058AE3F}"/>
-    <hyperlink ref="K36" r:id="rId13" xr:uid="{857D2E6F-BCB3-467B-8E6B-244BC41297A1}"/>
+    <hyperlink ref="K42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K43" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K41" r:id="rId4" xr:uid="{793A05AC-8C6B-46B3-9AFE-6B16CC608D5F}"/>
+    <hyperlink ref="K40" r:id="rId5" xr:uid="{F5822BB7-F026-4154-B5FE-D1A290BB5CB7}"/>
+    <hyperlink ref="K39" r:id="rId6" xr:uid="{70C82C78-38E9-4819-973D-C07B12609154}"/>
+    <hyperlink ref="K38" r:id="rId7" xr:uid="{D1F4B4D3-B9C2-44DC-8F3A-E316BB2F7BFD}"/>
+    <hyperlink ref="K36" r:id="rId8" xr:uid="{1CA0F2C7-5416-4733-A3BD-85EE61BCFCF3}"/>
+    <hyperlink ref="K35" r:id="rId9" xr:uid="{89B956CE-C12E-485D-8C44-E5375B55D44B}"/>
+    <hyperlink ref="K34" r:id="rId10" xr:uid="{B2773A57-4661-4510-8072-232DDA40AE63}"/>
+    <hyperlink ref="K33" r:id="rId11" xr:uid="{5D02B5D1-9B4B-4118-BBB1-12C3533E80A9}"/>
+    <hyperlink ref="K32" r:id="rId12" xr:uid="{4A79BDF9-F47F-4077-A70A-2A696058AE3F}"/>
+    <hyperlink ref="K37" r:id="rId13" xr:uid="{857D2E6F-BCB3-467B-8E6B-244BC41297A1}"/>
+    <hyperlink ref="K22" r:id="rId14" xr:uid="{8DB846CD-1626-41CC-98C6-40A12BDCBEF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId14"/>
-  <drawing r:id="rId15"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId15"/>
+  <drawing r:id="rId16"/>
   <webPublishItems count="1">
     <webPublishItem id="21161" divId="BOM_XY_STD_21161" sourceType="sheet" destinationFile="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/BOM_XY_STD.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/bom/BOM_XY_STD.xlsx
+++ b/bom/BOM_XY_STD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CEEA9A-8D7A-4796-997D-F28D625090D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB44BD0-E2BA-4338-8728-1559E83C9B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3545,7 +3545,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="84.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4943,7 +4943,7 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId15"/>
   <drawing r:id="rId16"/>
   <webPublishItems count="1">
-    <webPublishItem id="21161" divId="BOM_XY_STD_21161" sourceType="sheet" destinationFile="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/BOM_XY_STD.htm" autoRepublish="1"/>
+    <webPublishItem id="21161" divId="BOM_XY_STD_21161" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_XY_STD.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
     <tablePart r:id="rId17"/>

--- a/bom/BOM_XY_STD.xlsx
+++ b/bom/BOM_XY_STD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB44BD0-E2BA-4338-8728-1559E83C9B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7AB44BD0-E2BA-4338-8728-1559E83C9B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{52307883-48DF-4D0F-A480-57EA4D4AB4A8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="185">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>AliExpress</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/33006421501.html?spm=a2g0s.9042311.0.0.3e4d4c4dQtB9Y8</t>
   </si>
   <si>
     <t>37ae3e0660b16d0dba47ce09569758c1</t>
@@ -3544,8 +3541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="84.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3567,13 +3564,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>0</v>
@@ -3582,16 +3579,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>3</v>
@@ -3605,7 +3602,7 @@
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="24"/>
@@ -3620,7 +3617,7 @@
     </row>
     <row r="3" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>7</v>
@@ -3633,7 +3630,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>7</v>
@@ -3642,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="15"/>
@@ -3652,7 +3649,7 @@
     </row>
     <row r="4" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>7</v>
@@ -3665,16 +3662,16 @@
         <v>10</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="15"/>
@@ -3684,7 +3681,7 @@
     </row>
     <row r="5" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>7</v>
@@ -3697,16 +3694,16 @@
         <v>17</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="15"/>
@@ -3716,7 +3713,7 @@
     </row>
     <row r="6" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>7</v>
@@ -3729,7 +3726,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>7</v>
@@ -3738,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="15"/>
@@ -3748,7 +3745,7 @@
     </row>
     <row r="7" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>7</v>
@@ -3761,16 +3758,16 @@
         <v>10</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="15"/>
@@ -3780,7 +3777,7 @@
     </row>
     <row r="8" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>7</v>
@@ -3810,7 +3807,7 @@
     </row>
     <row r="9" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>7</v>
@@ -3832,7 +3829,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="15"/>
@@ -3842,7 +3839,7 @@
     </row>
     <row r="10" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>7</v>
@@ -3864,64 +3861,60 @@
         <v>1</v>
       </c>
       <c r="I10" s="34"/>
-      <c r="J10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="16" t="s">
+      <c r="J10" s="11"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="15"/>
       <c r="L11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>7</v>
@@ -3933,25 +3926,25 @@
       <c r="J12" s="11"/>
       <c r="K12" s="15"/>
       <c r="L12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>7</v>
@@ -3963,25 +3956,25 @@
       <c r="J13" s="11"/>
       <c r="K13" s="15"/>
       <c r="L13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>7</v>
@@ -3993,47 +3986,47 @@
       <c r="J14" s="11"/>
       <c r="K14" s="15"/>
       <c r="L14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="15"/>
       <c r="L15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>162</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>163</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>12</v>
@@ -4060,10 +4053,10 @@
     </row>
     <row r="17" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>162</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>163</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>35</v>
@@ -4090,10 +4083,10 @@
     </row>
     <row r="18" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>162</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>163</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>43</v>
@@ -4120,10 +4113,10 @@
     </row>
     <row r="19" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>162</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>163</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>47</v>
@@ -4150,10 +4143,10 @@
     </row>
     <row r="20" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>162</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>163</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>51</v>
@@ -4180,10 +4173,10 @@
     </row>
     <row r="21" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>162</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>163</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>55</v>
@@ -4210,19 +4203,19 @@
     </row>
     <row r="22" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E22" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>7</v>
@@ -4231,24 +4224,24 @@
         <v>16</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>82</v>
       </c>
       <c r="K22" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>162</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>163</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>63</v>
@@ -4275,10 +4268,10 @@
     </row>
     <row r="24" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>162</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>163</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>67</v>
@@ -4305,10 +4298,10 @@
     </row>
     <row r="25" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="31" t="s">
         <v>162</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>163</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>71</v>
@@ -4335,20 +4328,20 @@
     </row>
     <row r="26" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="31" t="s">
         <v>162</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>163</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>86</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>7</v>
@@ -4360,25 +4353,25 @@
       <c r="J26" s="11"/>
       <c r="K26" s="15"/>
       <c r="L26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="31" t="s">
         <v>162</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>163</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>7</v>
@@ -4390,25 +4383,25 @@
       <c r="J27" s="11"/>
       <c r="K27" s="15"/>
       <c r="L27" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>163</v>
-      </c>
       <c r="C28" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>140</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>141</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>7</v>
@@ -4420,25 +4413,25 @@
       <c r="J28" s="11"/>
       <c r="K28" s="15"/>
       <c r="L28" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>163</v>
-      </c>
       <c r="C29" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>144</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>7</v>
@@ -4450,25 +4443,25 @@
       <c r="J29" s="11"/>
       <c r="K29" s="15"/>
       <c r="L29" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>163</v>
-      </c>
       <c r="C30" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>7</v>
@@ -4480,25 +4473,25 @@
       <c r="J30" s="11"/>
       <c r="K30" s="15"/>
       <c r="L30" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>163</v>
-      </c>
       <c r="C31" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>7</v>
@@ -4510,25 +4503,25 @@
       <c r="J31" s="11"/>
       <c r="K31" s="15"/>
       <c r="L31" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>165</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>24</v>
@@ -4538,10 +4531,10 @@
       </c>
       <c r="I32" s="34"/>
       <c r="J32" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>25</v>
@@ -4549,20 +4542,20 @@
     </row>
     <row r="33" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>24</v>
@@ -4572,10 +4565,10 @@
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K33" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>27</v>
@@ -4583,13 +4576,13 @@
     </row>
     <row r="34" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="13" t="s">
@@ -4606,10 +4599,10 @@
       </c>
       <c r="I34" s="34"/>
       <c r="J34" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>30</v>
@@ -4617,13 +4610,13 @@
     </row>
     <row r="35" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="13" t="s">
@@ -4640,10 +4633,10 @@
       </c>
       <c r="I35" s="34"/>
       <c r="J35" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K35" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>66</v>
@@ -4651,13 +4644,13 @@
     </row>
     <row r="36" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="13" t="s">
@@ -4674,10 +4667,10 @@
       </c>
       <c r="I36" s="34"/>
       <c r="J36" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K36" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>78</v>
@@ -4685,20 +4678,20 @@
     </row>
     <row r="37" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>24</v>
@@ -4708,31 +4701,31 @@
       </c>
       <c r="I37" s="34"/>
       <c r="J37" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K37" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>24</v>
@@ -4742,31 +4735,31 @@
       </c>
       <c r="I38" s="34"/>
       <c r="J38" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K38" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="K38" s="16" t="s">
-        <v>133</v>
-      </c>
       <c r="L38" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>24</v>
@@ -4776,31 +4769,31 @@
       </c>
       <c r="I39" s="34"/>
       <c r="J39" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K39" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="K39" s="16" t="s">
-        <v>133</v>
-      </c>
       <c r="L39" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>24</v>
@@ -4810,31 +4803,31 @@
       </c>
       <c r="I40" s="34"/>
       <c r="J40" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K40" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="K40" s="16" t="s">
-        <v>133</v>
-      </c>
       <c r="L40" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>24</v>
@@ -4844,31 +4837,31 @@
       </c>
       <c r="I41" s="34"/>
       <c r="J41" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K41" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="K41" s="16" t="s">
-        <v>133</v>
-      </c>
       <c r="L41" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>24</v>
@@ -4878,31 +4871,31 @@
       </c>
       <c r="I42" s="34"/>
       <c r="J42" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K42" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="L42" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="19" t="s">
         <v>154</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>155</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>24</v>
@@ -4912,41 +4905,40 @@
       </c>
       <c r="I43" s="35"/>
       <c r="J43" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="K43" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K42" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K43" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K41" r:id="rId4" xr:uid="{793A05AC-8C6B-46B3-9AFE-6B16CC608D5F}"/>
-    <hyperlink ref="K40" r:id="rId5" xr:uid="{F5822BB7-F026-4154-B5FE-D1A290BB5CB7}"/>
-    <hyperlink ref="K39" r:id="rId6" xr:uid="{70C82C78-38E9-4819-973D-C07B12609154}"/>
-    <hyperlink ref="K38" r:id="rId7" xr:uid="{D1F4B4D3-B9C2-44DC-8F3A-E316BB2F7BFD}"/>
-    <hyperlink ref="K36" r:id="rId8" xr:uid="{1CA0F2C7-5416-4733-A3BD-85EE61BCFCF3}"/>
-    <hyperlink ref="K35" r:id="rId9" xr:uid="{89B956CE-C12E-485D-8C44-E5375B55D44B}"/>
-    <hyperlink ref="K34" r:id="rId10" xr:uid="{B2773A57-4661-4510-8072-232DDA40AE63}"/>
-    <hyperlink ref="K33" r:id="rId11" xr:uid="{5D02B5D1-9B4B-4118-BBB1-12C3533E80A9}"/>
-    <hyperlink ref="K32" r:id="rId12" xr:uid="{4A79BDF9-F47F-4077-A70A-2A696058AE3F}"/>
-    <hyperlink ref="K37" r:id="rId13" xr:uid="{857D2E6F-BCB3-467B-8E6B-244BC41297A1}"/>
-    <hyperlink ref="K22" r:id="rId14" xr:uid="{8DB846CD-1626-41CC-98C6-40A12BDCBEF2}"/>
+    <hyperlink ref="K42" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K43" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K41" r:id="rId3" xr:uid="{793A05AC-8C6B-46B3-9AFE-6B16CC608D5F}"/>
+    <hyperlink ref="K40" r:id="rId4" xr:uid="{F5822BB7-F026-4154-B5FE-D1A290BB5CB7}"/>
+    <hyperlink ref="K39" r:id="rId5" xr:uid="{70C82C78-38E9-4819-973D-C07B12609154}"/>
+    <hyperlink ref="K38" r:id="rId6" xr:uid="{D1F4B4D3-B9C2-44DC-8F3A-E316BB2F7BFD}"/>
+    <hyperlink ref="K36" r:id="rId7" xr:uid="{1CA0F2C7-5416-4733-A3BD-85EE61BCFCF3}"/>
+    <hyperlink ref="K35" r:id="rId8" xr:uid="{89B956CE-C12E-485D-8C44-E5375B55D44B}"/>
+    <hyperlink ref="K34" r:id="rId9" xr:uid="{B2773A57-4661-4510-8072-232DDA40AE63}"/>
+    <hyperlink ref="K33" r:id="rId10" xr:uid="{5D02B5D1-9B4B-4118-BBB1-12C3533E80A9}"/>
+    <hyperlink ref="K32" r:id="rId11" xr:uid="{4A79BDF9-F47F-4077-A70A-2A696058AE3F}"/>
+    <hyperlink ref="K37" r:id="rId12" xr:uid="{857D2E6F-BCB3-467B-8E6B-244BC41297A1}"/>
+    <hyperlink ref="K22" r:id="rId13" xr:uid="{8DB846CD-1626-41CC-98C6-40A12BDCBEF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId15"/>
-  <drawing r:id="rId16"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId14"/>
+  <drawing r:id="rId15"/>
   <webPublishItems count="1">
     <webPublishItem id="21161" divId="BOM_XY_STD_21161" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_XY_STD.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
--- a/bom/BOM_XY_STD.xlsx
+++ b/bom/BOM_XY_STD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7AB44BD0-E2BA-4338-8728-1559E83C9B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{52307883-48DF-4D0F-A480-57EA4D4AB4A8}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{7AB44BD0-E2BA-4338-8728-1559E83C9B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC5A6324-0B72-46DB-BA1C-284FF058779F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="186">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Nema 17  Stepper Motor length 40mm</t>
   </si>
   <si>
-    <t>Stepper Motor, NEMA17</t>
-  </si>
-  <si>
     <t>236a9a747ce37f9a7b8aae940d2007e8</t>
   </si>
   <si>
@@ -538,9 +535,6 @@
     <t>Comes with Rail</t>
   </si>
   <si>
-    <t>*Length defined by Frame Calculator</t>
-  </si>
-  <si>
     <t>MGN12 Rail for Y axis</t>
   </si>
   <si>
@@ -556,9 +550,6 @@
     <t>E3D High Torque 0.9 degree is Recommended</t>
   </si>
   <si>
-    <t>* 3 Meters Length recommended per Axis For 315mm*315mm print area</t>
-  </si>
-  <si>
     <t>QTY</t>
   </si>
   <si>
@@ -578,6 +569,42 @@
   </si>
   <si>
     <t xml:space="preserve">Qty 16 based on X&amp;Y Print size at 315.  Add Qty2 for every additional 5cm of Y axis over 315mm. </t>
+  </si>
+  <si>
+    <t>* See required length in the FrameCalculator: 
+https://miragec79.github.io/HevORT/framecalculator.html</t>
+  </si>
+  <si>
+    <t>Stepper Motor, NEMA17, E3D High Torque Recommended</t>
+  </si>
+  <si>
+    <t>*Length defined by Frame Calculator: https://miragec79.github.io/HevORT/framecalculator.html</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CAUTION!  The pulleys for this gantry are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8.5mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in height.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -587,7 +614,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,22 +688,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color rgb="FF00CCFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="14"/>
       <color theme="0" tint="-0.499984740745262"/>
@@ -694,13 +705,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -708,6 +712,50 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00CCFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -901,7 +949,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -911,9 +959,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -927,9 +972,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -941,9 +983,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -960,13 +999,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -984,13 +1020,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -999,16 +1032,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1017,48 +1041,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1070,7 +1103,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -1100,7 +1133,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="14"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1111,6 +1144,42 @@
           <color theme="0" tint="-0.499984740745262"/>
         </left>
         <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
         <top style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </top>
@@ -1155,8 +1224,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </left>
@@ -1169,12 +1238,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -3209,10 +3272,10 @@
     <tableColumn id="5" xr3:uid="{28401BAB-1CEF-427B-8E6F-622865E7EBB8}" name="Part Name" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{382B7845-56EB-45D7-8CCE-15717635CCAB}" name="Part Description" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{A4E17178-CC27-4E38-B486-F181CA9AE417}" name="Make/Buy" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{EC537AD6-32C8-4706-B65E-13E38AB3833A}" name="QTY" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{6AC3276E-9D26-4BC1-A394-600FE654322F}" name="Comment" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{6515E3E9-26AA-4755-831D-493ABCE54732}" name="Vendor" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{16457DAC-F914-465E-9003-06236EDD13B0}" name="Vendor URL" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{EC537AD6-32C8-4706-B65E-13E38AB3833A}" name="QTY" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{6AC3276E-9D26-4BC1-A394-600FE654322F}" name="Comment" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{6515E3E9-26AA-4755-831D-493ABCE54732}" name="Vendor" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{16457DAC-F914-465E-9003-06236EDD13B0}" name="Vendor URL" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3541,8 +3604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="84.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3552,48 +3615,48 @@
     <col min="3" max="3" width="8.7109375" style="2"/>
     <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="47.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" style="34" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" style="28" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="82" style="1" customWidth="1"/>
+    <col min="11" max="11" width="43.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="H1" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -3601,1321 +3664,1325 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
+      <c r="A2" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="24">
         <v>1</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="37">
         <v>2</v>
       </c>
-      <c r="I3" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="15"/>
+      <c r="I3" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="15"/>
+      <c r="H4" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="31" t="s">
+      <c r="A5" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="15"/>
+      <c r="H5" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="37">
         <v>1</v>
       </c>
-      <c r="I6" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="15"/>
+      <c r="I6" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="12"/>
       <c r="L6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="31" t="s">
+      <c r="A7" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="15"/>
+      <c r="H7" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="37">
         <v>2</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="15"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="12"/>
       <c r="L8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="31" t="s">
+      <c r="A9" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="37">
+        <v>2</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="14">
-        <v>2</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="37">
         <v>1</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="16"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="13"/>
       <c r="L10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="G11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="31" t="s">
+      <c r="A12" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="37">
+        <v>6</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="14">
-        <v>6</v>
-      </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="31" t="s">
+      <c r="A13" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="13" t="s">
+      <c r="F13" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="G13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="37">
+        <v>4</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="14">
-        <v>4</v>
-      </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="13" t="s">
+      <c r="F14" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="G14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="37">
+        <v>2</v>
+      </c>
+      <c r="I14" s="41"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="14">
-        <v>2</v>
-      </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="31" t="s">
+      <c r="A15" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="13" t="s">
+      <c r="F15" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="G15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="37">
         <v>47</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="15"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="12"/>
       <c r="L16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="37">
         <v>10</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="15"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13" t="s">
+      <c r="F18" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="G18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="37">
+        <v>2</v>
+      </c>
+      <c r="I18" s="41"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="14">
-        <v>2</v>
-      </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="13" t="s">
+      <c r="F19" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="G19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="37">
+        <v>5</v>
+      </c>
+      <c r="I19" s="41"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="14">
-        <v>5</v>
-      </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="13" t="s">
+      <c r="F20" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="G20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="37">
+        <v>6</v>
+      </c>
+      <c r="I20" s="41"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="14">
-        <v>6</v>
-      </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="G21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="37">
+        <v>27</v>
+      </c>
+      <c r="I21" s="41"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="14">
-        <v>27</v>
-      </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="C22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="37">
+        <v>16</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="14">
-        <v>16</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="13" t="s">
+      <c r="C23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="G23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="37">
+        <v>27</v>
+      </c>
+      <c r="I23" s="41"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="14">
-        <v>27</v>
-      </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="13" t="s">
+      <c r="F24" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="G24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="37">
+        <v>15</v>
+      </c>
+      <c r="I24" s="41"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="14">
-        <v>15</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="13" t="s">
+      <c r="F25" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="G25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="37">
+        <v>2</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="14">
-        <v>2</v>
-      </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B26" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="13" t="s">
+      <c r="C26" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="G26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="37">
+        <v>5</v>
+      </c>
+      <c r="I26" s="41"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="14">
-        <v>5</v>
-      </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="13" t="s">
+      <c r="C27" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="G27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="37">
+        <v>4</v>
+      </c>
+      <c r="I27" s="41"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="14">
-        <v>4</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="13" t="s">
+      <c r="C28" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="G28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="37">
+        <v>2</v>
+      </c>
+      <c r="I28" s="41"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="14">
-        <v>2</v>
-      </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="13" t="s">
+      <c r="C29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="G29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="37">
+        <v>6</v>
+      </c>
+      <c r="I29" s="41"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="14">
-        <v>6</v>
-      </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="13" t="s">
+      <c r="C30" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="G30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="37">
+        <v>4</v>
+      </c>
+      <c r="I30" s="41"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="14">
-        <v>4</v>
-      </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="13" t="s">
+      <c r="C31" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="G31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="37">
+        <v>4</v>
+      </c>
+      <c r="I31" s="41"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="14">
-        <v>4</v>
-      </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" s="31" t="s">
+      <c r="A32" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="13" t="s">
+      <c r="C32" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="37">
         <v>1</v>
       </c>
-      <c r="I32" s="34"/>
-      <c r="J32" s="11" t="s">
+      <c r="I32" s="41"/>
+      <c r="J32" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K32" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>132</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B33" s="31" t="s">
+      <c r="A33" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="13" t="s">
+      <c r="C33" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G33" s="12" t="s">
+      <c r="F33" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="37">
         <v>1</v>
       </c>
-      <c r="I33" s="34"/>
-      <c r="J33" s="11" t="s">
+      <c r="I33" s="41"/>
+      <c r="J33" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>132</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B34" s="31" t="s">
+      <c r="A34" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="13" t="s">
+      <c r="C34" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="37">
         <v>1</v>
       </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="11" t="s">
+      <c r="I34" s="41"/>
+      <c r="J34" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K34" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>132</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="31" t="s">
+      <c r="A35" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="13" t="s">
+      <c r="C35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="G35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="37">
+        <v>1</v>
+      </c>
+      <c r="I35" s="41"/>
+      <c r="J35" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="14">
-        <v>1</v>
-      </c>
-      <c r="I35" s="34"/>
-      <c r="J35" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" s="31" t="s">
+      <c r="A36" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="13" t="s">
+      <c r="C36" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="G36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="37">
+        <v>1</v>
+      </c>
+      <c r="I36" s="41"/>
+      <c r="J36" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="14">
-        <v>1</v>
-      </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B37" s="31" t="s">
+      <c r="A37" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="13" t="s">
+      <c r="C37" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="G37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="37">
+        <v>1</v>
+      </c>
+      <c r="I37" s="41"/>
+      <c r="J37" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K37" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="14">
-        <v>1</v>
-      </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K37" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" s="31" t="s">
+      <c r="A38" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="13" t="s">
+      <c r="C38" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="G38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="37">
+        <v>1</v>
+      </c>
+      <c r="I38" s="41"/>
+      <c r="J38" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="14">
-        <v>1</v>
-      </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B39" s="31" t="s">
+      <c r="A39" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="13" t="s">
+      <c r="C39" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="G39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="37">
+        <v>1</v>
+      </c>
+      <c r="I39" s="41"/>
+      <c r="J39" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="14">
-        <v>1</v>
-      </c>
-      <c r="I39" s="34"/>
-      <c r="J39" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K39" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B40" s="31" t="s">
+      <c r="A40" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="13" t="s">
+      <c r="C40" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="G40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="37">
+        <v>1</v>
+      </c>
+      <c r="I40" s="41"/>
+      <c r="J40" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L40" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="14">
-        <v>1</v>
-      </c>
-      <c r="I40" s="34"/>
-      <c r="J40" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" s="31" t="s">
+      <c r="A41" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="13" t="s">
+      <c r="C41" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="G41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="37">
+        <v>1</v>
+      </c>
+      <c r="I41" s="41"/>
+      <c r="J41" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="14">
-        <v>1</v>
-      </c>
-      <c r="I41" s="34"/>
-      <c r="J41" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B42" s="31" t="s">
+      <c r="A42" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="13" t="s">
+      <c r="C42" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="G42" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="37">
+        <v>1</v>
+      </c>
+      <c r="I42" s="41"/>
+      <c r="J42" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G42" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="14">
-        <v>1</v>
-      </c>
-      <c r="I42" s="34"/>
-      <c r="J42" s="11" t="s">
+      <c r="K42" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="L42" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B43" s="32" t="s">
+      <c r="A43" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="19" t="s">
+      <c r="C43" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="G43" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="38">
+        <v>1</v>
+      </c>
+      <c r="I43" s="44"/>
+      <c r="J43" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="G43" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H43" s="20">
-        <v>1</v>
-      </c>
-      <c r="I43" s="35"/>
-      <c r="J43" s="17" t="s">
+      <c r="K43" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="K43" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K42" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="K43" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>

--- a/bom/BOM_XY_STD.xlsx
+++ b/bom/BOM_XY_STD.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{7AB44BD0-E2BA-4338-8728-1559E83C9B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC5A6324-0B72-46DB-BA1C-284FF058779F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -1093,6 +1093,42 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1144,42 +1180,6 @@
           <color theme="0" tint="-0.499984740745262"/>
         </left>
         <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
         <top style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </top>
@@ -3272,10 +3272,10 @@
     <tableColumn id="5" xr3:uid="{28401BAB-1CEF-427B-8E6F-622865E7EBB8}" name="Part Name" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{382B7845-56EB-45D7-8CCE-15717635CCAB}" name="Part Description" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{A4E17178-CC27-4E38-B486-F181CA9AE417}" name="Make/Buy" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{EC537AD6-32C8-4706-B65E-13E38AB3833A}" name="QTY" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{6AC3276E-9D26-4BC1-A394-600FE654322F}" name="Comment" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{6515E3E9-26AA-4755-831D-493ABCE54732}" name="Vendor" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{16457DAC-F914-465E-9003-06236EDD13B0}" name="Vendor URL" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{EC537AD6-32C8-4706-B65E-13E38AB3833A}" name="QTY" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{6AC3276E-9D26-4BC1-A394-600FE654322F}" name="Comment" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{6515E3E9-26AA-4755-831D-493ABCE54732}" name="Vendor" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{16457DAC-F914-465E-9003-06236EDD13B0}" name="Vendor URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3604,28 +3604,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="84.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="85" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="2"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="43.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="2"/>
+    <col min="4" max="4" width="16.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7265625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.26953125" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="43.54296875" style="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="1"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>156</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>165</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>160</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
         <v>160</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>160</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
         <v>160</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>160</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
         <v>160</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25" t="s">
         <v>160</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
         <v>160</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
         <v>160</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
         <v>160</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
         <v>160</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
         <v>160</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
         <v>160</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
         <v>160</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
         <v>160</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
         <v>160</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
         <v>160</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>160</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
         <v>160</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
         <v>160</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
         <v>160</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="25" t="s">
         <v>160</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
         <v>160</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="25" t="s">
         <v>160</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="25" t="s">
         <v>160</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="25" t="s">
         <v>160</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="25" t="s">
         <v>160</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="25" t="s">
         <v>160</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
         <v>160</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
         <v>160</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
         <v>160</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="25" t="s">
         <v>160</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="25" t="s">
         <v>160</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="25" t="s">
         <v>160</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="25" t="s">
         <v>160</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="25" t="s">
         <v>160</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="s">
         <v>160</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="25" t="s">
         <v>160</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="25" t="s">
         <v>160</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="25" t="s">
         <v>160</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="25" t="s">
         <v>160</v>
       </c>

--- a/bom/BOM_XY_STD.xlsx
+++ b/bom/BOM_XY_STD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{7AB44BD0-E2BA-4338-8728-1559E83C9B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC5A6324-0B72-46DB-BA1C-284FF058779F}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{7AB44BD0-E2BA-4338-8728-1559E83C9B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{583236ED-8AD7-46B6-97DE-799EE53FFC6E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="156">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -52,18 +52,12 @@
     <t>e373ffef0335429dbb0d2076bd0490d4</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>MGN12 Rail</t>
   </si>
   <si>
     <t>6cecde9afd9c46488b74f01bb7452f1e</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>M3X10_CapScrew_92290A115</t>
   </si>
   <si>
@@ -73,27 +67,18 @@
     <t>0cb37cee49c04c648a3d44daf949f2a4</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>TrackX_2020Profile</t>
   </si>
   <si>
     <t>e7d0949957284065bc2f383fc3de6dcf</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>MGN12H Block</t>
   </si>
   <si>
     <t>630e8ed682514ba290fc2ac1404b22d0</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>30a1546a053248d89d0fe572a1a54e08</t>
   </si>
   <si>
@@ -118,9 +103,6 @@
     <t>f41d5695155c4633ac463ce4b7a3b6f2</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>MR115ZZ_Bearing_7804K107</t>
   </si>
   <si>
@@ -130,9 +112,6 @@
     <t>e474876d2d514e7ead4b18056c9cbd6e</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>M3X8_CapScrew_92290A113</t>
   </si>
   <si>
@@ -142,18 +121,12 @@
     <t>bfff21ae6afb5cf5b9a9f7f1239d2c86</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>Nema 17  Stepper Motor length 40mm</t>
   </si>
   <si>
     <t>236a9a747ce37f9a7b8aae940d2007e8</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>M5X10_ButtonHeadScrew_97763A820</t>
   </si>
   <si>
@@ -163,9 +136,6 @@
     <t>a590f63c8d6e4a809a2dce72cc40e6ba</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>M3X30_CapScrew_92290A126</t>
   </si>
   <si>
@@ -175,9 +145,6 @@
     <t>ea69f746d49b4d14917eefc49cd1bb83</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>M3X20_CapScrew_92290A122</t>
   </si>
   <si>
@@ -187,9 +154,6 @@
     <t>72d834994834410ebad1c1818b8025b6</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>M6_TSlot_Nut</t>
   </si>
   <si>
@@ -199,9 +163,6 @@
     <t>d318404ab0d6472dbc9eb43ee8c0e069</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>M6X14_ButtonHeadScrew_92095A227</t>
   </si>
   <si>
@@ -211,9 +172,6 @@
     <t>e79cdc31a3e84973a286be9989152cf7</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>PulleyMount_REAR_LEFT_Body</t>
   </si>
   <si>
@@ -223,9 +181,6 @@
     <t>37561c10f4b743f5a8cc69bfb579be1d</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>M3_Nut_94150A325</t>
   </si>
   <si>
@@ -235,9 +190,6 @@
     <t>6e3ef5dfd99a4fa28abe82a7c0b059e4</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>M3X12_CapScrew_92290A117</t>
   </si>
   <si>
@@ -247,9 +199,6 @@
     <t>e6971c7dddd4489087852fcdb5a380b0</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>PulleyMount_FRONT_LEFT_BodyV1.1</t>
   </si>
   <si>
@@ -259,9 +208,6 @@
     <t>866570b5b897438398e968e1229188c1</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>Opto endstop PM</t>
   </si>
   <si>
@@ -274,9 +220,6 @@
     <t>37ae3e0660b16d0dba47ce09569758c1</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>M3X25_CapScrew_92290A124</t>
   </si>
   <si>
@@ -286,9 +229,6 @@
     <t>1ad76402ee94498d8088de0b395bad11</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>HevORT LOGO_Small_Grey</t>
   </si>
   <si>
@@ -298,9 +238,6 @@
     <t>257f1bc4d89f4e63b96e7fa3cde992e3</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>PulleyMount_REAR_RIGHT_Body</t>
   </si>
   <si>
@@ -310,9 +247,6 @@
     <t>8260da35996b4269887eaa3f484cf605</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>PulleyMount_FRONT_RIGHT_BodyV1.1</t>
   </si>
   <si>
@@ -322,9 +256,6 @@
     <t>e1a05c66023744c2952d270168669626</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>MotorBracket_RIGHT_Body V1.1</t>
   </si>
   <si>
@@ -334,9 +265,6 @@
     <t>6a032a33b721442181c737d2c357d016</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>MotorCover_BODY_RIGHT</t>
   </si>
   <si>
@@ -346,9 +274,6 @@
     <t>3ef3ef9fd70a4f5b92dde241b03eabb3</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>LowerBelt GT2 6mm</t>
   </si>
   <si>
@@ -358,9 +283,6 @@
     <t>778280444eeb44998ffaed3954b94e72</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>GT2 20T Pulley 3mm bore v1</t>
   </si>
   <si>
@@ -370,9 +292,6 @@
     <t>6cb1776be93cd2689845fbb06baf04e7</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>GT2 Pulley Idler v3</t>
   </si>
   <si>
@@ -382,9 +301,6 @@
     <t>7664856766faa86297e4e39fd1d3264c</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>GT2 Timing Pulley 20T 6mm - Hole_5mm v4</t>
   </si>
   <si>
@@ -394,9 +310,6 @@
     <t>a9c3c42dc7435a550e0805b0356d9774</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>UpperBelt GT2 6mm</t>
   </si>
   <si>
@@ -406,9 +319,6 @@
     <t>5b90c721769040e79bf91887220bf5df</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>Y_Carriage_RIGHT_Body (1)</t>
   </si>
   <si>
@@ -424,9 +334,6 @@
     <t>332e766925b949e7b09fb17da6e6fc2a</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>M5X12_ButtonHeadScrew_91239A228</t>
   </si>
   <si>
@@ -436,9 +343,6 @@
     <t>aa2f28f0f86e49ef8d7ab3de3cb2b101</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>M5X20_ButtonHeadScrew_91239A233</t>
   </si>
   <si>
@@ -448,9 +352,6 @@
     <t>1312937ce13449aab6ec0460203068f2</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>M5X2020_T-Nut_91239A224</t>
   </si>
   <si>
@@ -460,9 +361,6 @@
     <t>30b433583dcf47c0834c3340451b0405</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>M3X6_CapScrew_92290A111</t>
   </si>
   <si>
@@ -559,16 +457,10 @@
     <t>M3X2020_T-Nut</t>
   </si>
   <si>
-    <t>Nut, TSlot - M3X2020</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/32917702848.html?spm=a2g0s.9042311.0.0.10194c4dtWXsMc</t>
   </si>
   <si>
     <t>069175e752a89b48639d7e8c4b4fa7f8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qty 16 based on X&amp;Y Print size at 315.  Add Qty2 for every additional 5cm of Y axis over 315mm. </t>
   </si>
   <si>
     <t>* See required length in the FrameCalculator: 
@@ -606,6 +498,69 @@
       <t xml:space="preserve"> in height.</t>
     </r>
   </si>
+  <si>
+    <t>ZR_V2</t>
+  </si>
+  <si>
+    <t>Nut, TSlot - M3X2020 for X axis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nut, TSlot - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M3X3030</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for Y Axis</t>
+    </r>
+  </si>
+  <si>
+    <t>Qty 8 based on X&amp;Y Print size at 315.  Add Qty1 for every additional 5cm of Y axis over 315mm. (one every 2 holes)</t>
+  </si>
+  <si>
+    <t>Qty 16 based on X&amp;Y Print size at 315.  Add Qty2 (one per Y side) for every additional 5cm of Y axis over 315mm.  (one every 2 holes)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M3X3030</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TSlot_Nut</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -614,7 +569,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,6 +715,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -781,7 +759,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -941,6 +919,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -949,7 +953,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1084,6 +1088,72 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1722,13 +1792,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1766,13 +1836,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1810,13 +1880,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2162,13 +2232,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2206,13 +2276,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2250,13 +2320,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2294,13 +2364,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2338,13 +2408,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2426,13 +2496,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2470,13 +2540,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2514,13 +2584,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2558,13 +2628,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2602,13 +2672,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2646,13 +2716,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2910,13 +2980,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2954,13 +3024,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2998,13 +3068,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3042,13 +3112,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3086,13 +3156,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3130,13 +3200,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3174,13 +3244,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1051413</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>1012063</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3218,13 +3288,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1311275</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>1304925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3258,12 +3328,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209552</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1187939</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1135888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43" descr="thumbnail_52.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF59B32-5C39-4024-9E66-B8FEFFD664B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657602" y="23736300"/>
+          <a:ext cx="978387" cy="932688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9932D91-4E80-4625-9438-1B4634C35449}" name="Table1" displayName="Table1" ref="A1:K43" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:K43" xr:uid="{87DCFC6C-0A0A-47CD-88B0-C875758D491D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9932D91-4E80-4625-9438-1B4634C35449}" name="Table1" displayName="Table1" ref="A1:K44" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:K44" xr:uid="{87DCFC6C-0A0A-47CD-88B0-C875758D491D}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F8AAF35A-6745-49CB-9C04-0FF2D42AF8A9}" name="SubAssy" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{477183BF-000F-4F47-BEA4-857BFFD9EDD2}" name="Category" dataDxfId="9"/>
@@ -3602,10 +3716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="85" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3627,13 +3741,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -3642,16 +3756,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>3</v>
@@ -3665,7 +3779,7 @@
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="20"/>
@@ -3680,7 +3794,7 @@
     </row>
     <row r="3" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>7</v>
@@ -3693,7 +3807,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>7</v>
@@ -3702,7 +3816,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="12"/>
@@ -3712,84 +3826,84 @@
     </row>
     <row r="4" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>9</v>
+      <c r="C4" s="24">
+        <v>2</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="12"/>
       <c r="L4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>16</v>
+      <c r="C5" s="24">
+        <v>3</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="12"/>
       <c r="L5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>19</v>
+      <c r="C6" s="24">
+        <v>4</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>7</v>
@@ -3798,62 +3912,62 @@
         <v>1</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="12"/>
       <c r="L6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>22</v>
+      <c r="C7" s="24">
+        <v>5</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="12"/>
       <c r="L7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>31</v>
+      <c r="C8" s="24">
+        <v>6</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>7</v>
@@ -3865,25 +3979,25 @@
       <c r="J8" s="9"/>
       <c r="K8" s="12"/>
       <c r="L8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>39</v>
+      <c r="C9" s="24">
+        <v>7</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>7</v>
@@ -3892,30 +4006,30 @@
         <v>2</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="12"/>
       <c r="L9" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>78</v>
+      <c r="C10" s="24">
+        <v>8</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="11" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>7</v>
@@ -3927,57 +4041,57 @@
       <c r="J10" s="9"/>
       <c r="K10" s="13"/>
       <c r="L10" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>107</v>
+      <c r="C11" s="24">
+        <v>9</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="11" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="12"/>
       <c r="L11" s="1" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>111</v>
+      <c r="C12" s="24">
+        <v>10</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="11" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>7</v>
@@ -3986,30 +4100,30 @@
         <v>6</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="12"/>
       <c r="L12" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>115</v>
+      <c r="C13" s="24">
+        <v>11</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="11" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>7</v>
@@ -4018,30 +4132,30 @@
         <v>4</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="12"/>
       <c r="L13" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>119</v>
+      <c r="C14" s="24">
+        <v>12</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="11" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>7</v>
@@ -4053,57 +4167,57 @@
       <c r="J14" s="9"/>
       <c r="K14" s="12"/>
       <c r="L14" s="1" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>123</v>
+      <c r="C15" s="24">
+        <v>13</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="11" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="12"/>
       <c r="L15" s="1" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>12</v>
+        <v>127</v>
+      </c>
+      <c r="C16" s="24">
+        <v>14</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>7</v>
@@ -4115,25 +4229,25 @@
       <c r="J16" s="9"/>
       <c r="K16" s="12"/>
       <c r="L16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>35</v>
+        <v>127</v>
+      </c>
+      <c r="C17" s="24">
+        <v>15</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>7</v>
@@ -4145,25 +4259,25 @@
       <c r="J17" s="9"/>
       <c r="K17" s="12"/>
       <c r="L17" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>42</v>
+        <v>127</v>
+      </c>
+      <c r="C18" s="24">
+        <v>16</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="11" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>7</v>
@@ -4175,25 +4289,25 @@
       <c r="J18" s="9"/>
       <c r="K18" s="12"/>
       <c r="L18" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>46</v>
+        <v>127</v>
+      </c>
+      <c r="C19" s="24">
+        <v>17</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>7</v>
@@ -4205,360 +4319,367 @@
       <c r="J19" s="9"/>
       <c r="K19" s="12"/>
       <c r="L19" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="A20" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="24">
+        <v>18</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="38">
         <v>6</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="12"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="47"/>
       <c r="L20" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="10" t="s">
+      <c r="A21" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="24">
+        <v>19</v>
+      </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="63">
         <v>27</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="12"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
       <c r="L21" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" s="10" t="s">
+    <row r="22" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="24">
+        <v>20</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="37">
-        <v>16</v>
-      </c>
-      <c r="I22" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>179</v>
+      <c r="H22" s="63">
+        <v>24</v>
+      </c>
+      <c r="I22" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="66" t="s">
+        <v>144</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>180</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="10" t="s">
+    <row r="23" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="24">
+        <v>21</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="37">
-        <v>27</v>
-      </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="12"/>
+      <c r="H23" s="63">
+        <v>8</v>
+      </c>
+      <c r="I23" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="J23" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="66" t="s">
+        <v>144</v>
+      </c>
       <c r="L23" s="1" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="10" t="s">
+      <c r="A24" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="24">
+        <v>22</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="37">
-        <v>15</v>
-      </c>
-      <c r="I24" s="41"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="12"/>
+      <c r="H24" s="54">
+        <v>27</v>
+      </c>
+      <c r="I24" s="55"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="56"/>
       <c r="L24" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>70</v>
+        <v>127</v>
+      </c>
+      <c r="C25" s="24">
+        <v>23</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H25" s="37">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="9"/>
       <c r="K25" s="12"/>
       <c r="L25" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>74</v>
+        <v>127</v>
+      </c>
+      <c r="C26" s="24">
+        <v>24</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="11" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H26" s="37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I26" s="41"/>
       <c r="J26" s="9"/>
       <c r="K26" s="12"/>
       <c r="L26" s="1" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>78</v>
+        <v>127</v>
+      </c>
+      <c r="C27" s="24">
+        <v>25</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="11" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" s="41"/>
       <c r="J27" s="9"/>
       <c r="K27" s="12"/>
       <c r="L27" s="1" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>83</v>
+        <v>127</v>
+      </c>
+      <c r="C28" s="24">
+        <v>26</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="11" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H28" s="37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28" s="41"/>
       <c r="J28" s="9"/>
       <c r="K28" s="12"/>
       <c r="L28" s="1" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>87</v>
+        <v>127</v>
+      </c>
+      <c r="C29" s="24">
+        <v>27</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="11" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H29" s="37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I29" s="41"/>
       <c r="J29" s="9"/>
       <c r="K29" s="12"/>
       <c r="L29" s="1" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>91</v>
+        <v>127</v>
+      </c>
+      <c r="C30" s="24">
+        <v>28</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="11" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I30" s="41"/>
       <c r="J30" s="9"/>
       <c r="K30" s="12"/>
       <c r="L30" s="1" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>95</v>
+        <v>127</v>
+      </c>
+      <c r="C31" s="24">
+        <v>29</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="11" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>7</v>
@@ -4570,442 +4691,473 @@
       <c r="J31" s="9"/>
       <c r="K31" s="12"/>
       <c r="L31" s="1" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>99</v>
+        <v>127</v>
+      </c>
+      <c r="C32" s="24">
+        <v>30</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="11" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H32" s="37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I32" s="41"/>
-      <c r="J32" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>131</v>
-      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="12"/>
       <c r="L32" s="1" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>103</v>
+        <v>19</v>
+      </c>
+      <c r="C33" s="24">
+        <v>31</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="11" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H33" s="37">
         <v>1</v>
       </c>
       <c r="I33" s="41"/>
       <c r="J33" s="9" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>107</v>
+        <v>19</v>
+      </c>
+      <c r="C34" s="24">
+        <v>32</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H34" s="37">
         <v>1</v>
       </c>
       <c r="I34" s="41"/>
       <c r="J34" s="9" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>111</v>
+        <v>19</v>
+      </c>
+      <c r="C35" s="24">
+        <v>33</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="11" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H35" s="37">
         <v>1</v>
       </c>
       <c r="I35" s="41"/>
       <c r="J35" s="9" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>115</v>
+        <v>19</v>
+      </c>
+      <c r="C36" s="24">
+        <v>34</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="11" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H36" s="37">
         <v>1</v>
       </c>
       <c r="I36" s="41"/>
       <c r="J36" s="9" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>119</v>
+        <v>19</v>
+      </c>
+      <c r="C37" s="24">
+        <v>35</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="11" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H37" s="37">
         <v>1</v>
       </c>
       <c r="I37" s="41"/>
       <c r="J37" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="K37" s="30" t="s">
-        <v>176</v>
+        <v>100</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>123</v>
+        <v>19</v>
+      </c>
+      <c r="C38" s="24">
+        <v>36</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="11" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H38" s="37">
         <v>1</v>
       </c>
       <c r="I38" s="41"/>
       <c r="J38" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>131</v>
+        <v>100</v>
+      </c>
+      <c r="K38" s="30" t="s">
+        <v>142</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>127</v>
+        <v>19</v>
+      </c>
+      <c r="C39" s="24">
+        <v>37</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="11" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H39" s="37">
         <v>1</v>
       </c>
       <c r="I39" s="41"/>
       <c r="J39" s="9" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>133</v>
+        <v>19</v>
+      </c>
+      <c r="C40" s="24">
+        <v>38</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="11" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H40" s="37">
         <v>1</v>
       </c>
       <c r="I40" s="41"/>
       <c r="J40" s="9" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>137</v>
+        <v>19</v>
+      </c>
+      <c r="C41" s="24">
+        <v>39</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="11" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F41" s="31" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H41" s="37">
         <v>1</v>
       </c>
       <c r="I41" s="41"/>
       <c r="J41" s="9" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="25" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>141</v>
+        <v>19</v>
+      </c>
+      <c r="C42" s="24">
+        <v>40</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="11" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H42" s="37">
         <v>1</v>
       </c>
       <c r="I42" s="41"/>
       <c r="J42" s="9" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H43" s="38">
+        <v>126</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="24">
+        <v>41</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="37">
         <v>1</v>
       </c>
-      <c r="I43" s="44"/>
-      <c r="J43" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>131</v>
+      <c r="I43" s="41"/>
+      <c r="J43" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>155</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="24">
+        <v>42</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="38">
+        <v>1</v>
+      </c>
+      <c r="I44" s="44"/>
+      <c r="J44" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K42" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K43" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K41" r:id="rId3" xr:uid="{793A05AC-8C6B-46B3-9AFE-6B16CC608D5F}"/>
-    <hyperlink ref="K40" r:id="rId4" xr:uid="{F5822BB7-F026-4154-B5FE-D1A290BB5CB7}"/>
-    <hyperlink ref="K39" r:id="rId5" xr:uid="{70C82C78-38E9-4819-973D-C07B12609154}"/>
-    <hyperlink ref="K38" r:id="rId6" xr:uid="{D1F4B4D3-B9C2-44DC-8F3A-E316BB2F7BFD}"/>
-    <hyperlink ref="K36" r:id="rId7" xr:uid="{1CA0F2C7-5416-4733-A3BD-85EE61BCFCF3}"/>
-    <hyperlink ref="K35" r:id="rId8" xr:uid="{89B956CE-C12E-485D-8C44-E5375B55D44B}"/>
-    <hyperlink ref="K34" r:id="rId9" xr:uid="{B2773A57-4661-4510-8072-232DDA40AE63}"/>
-    <hyperlink ref="K33" r:id="rId10" xr:uid="{5D02B5D1-9B4B-4118-BBB1-12C3533E80A9}"/>
-    <hyperlink ref="K32" r:id="rId11" xr:uid="{4A79BDF9-F47F-4077-A70A-2A696058AE3F}"/>
-    <hyperlink ref="K37" r:id="rId12" xr:uid="{857D2E6F-BCB3-467B-8E6B-244BC41297A1}"/>
-    <hyperlink ref="K22" r:id="rId13" xr:uid="{8DB846CD-1626-41CC-98C6-40A12BDCBEF2}"/>
+    <hyperlink ref="K43" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K44" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K42" r:id="rId3" xr:uid="{793A05AC-8C6B-46B3-9AFE-6B16CC608D5F}"/>
+    <hyperlink ref="K41" r:id="rId4" xr:uid="{F5822BB7-F026-4154-B5FE-D1A290BB5CB7}"/>
+    <hyperlink ref="K40" r:id="rId5" xr:uid="{70C82C78-38E9-4819-973D-C07B12609154}"/>
+    <hyperlink ref="K39" r:id="rId6" xr:uid="{D1F4B4D3-B9C2-44DC-8F3A-E316BB2F7BFD}"/>
+    <hyperlink ref="K37" r:id="rId7" xr:uid="{1CA0F2C7-5416-4733-A3BD-85EE61BCFCF3}"/>
+    <hyperlink ref="K36" r:id="rId8" xr:uid="{89B956CE-C12E-485D-8C44-E5375B55D44B}"/>
+    <hyperlink ref="K35" r:id="rId9" xr:uid="{B2773A57-4661-4510-8072-232DDA40AE63}"/>
+    <hyperlink ref="K34" r:id="rId10" xr:uid="{5D02B5D1-9B4B-4118-BBB1-12C3533E80A9}"/>
+    <hyperlink ref="K33" r:id="rId11" xr:uid="{4A79BDF9-F47F-4077-A70A-2A696058AE3F}"/>
+    <hyperlink ref="K38" r:id="rId12" xr:uid="{857D2E6F-BCB3-467B-8E6B-244BC41297A1}"/>
+    <hyperlink ref="K23" r:id="rId13" xr:uid="{8DB846CD-1626-41CC-98C6-40A12BDCBEF2}"/>
+    <hyperlink ref="K22" r:id="rId14" xr:uid="{D277D421-9A0A-498B-BCCB-71EF73FA8271}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId14"/>
-  <drawing r:id="rId15"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId15"/>
+  <drawing r:id="rId16"/>
   <webPublishItems count="1">
     <webPublishItem id="21161" divId="BOM_XY_STD_21161" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_XY_STD.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/bom/BOM_XY_STD.xlsx
+++ b/bom/BOM_XY_STD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{7AB44BD0-E2BA-4338-8728-1559E83C9B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{583236ED-8AD7-46B6-97DE-799EE53FFC6E}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{7AB44BD0-E2BA-4338-8728-1559E83C9B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BE589943-34DB-4954-A0D5-966B3251A6F0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="155">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -497,9 +497,6 @@
       </rPr>
       <t xml:space="preserve"> in height.</t>
     </r>
-  </si>
-  <si>
-    <t>ZR_V2</t>
   </si>
   <si>
     <t>Nut, TSlot - M3X2020 for X axis</t>
@@ -569,7 +566,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,14 +708,6 @@
     <font>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -953,7 +942,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1147,13 +1136,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3719,7 +3705,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="A21" sqref="A21:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="85" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4383,8 +4369,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="65" t="s">
-        <v>150</v>
+      <c r="A22" s="57" t="s">
+        <v>126</v>
       </c>
       <c r="B22" s="58" t="s">
         <v>127</v>
@@ -4394,10 +4380,10 @@
       </c>
       <c r="D22" s="60"/>
       <c r="E22" s="61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F22" s="62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G22" s="59" t="s">
         <v>7</v>
@@ -4405,13 +4391,13 @@
       <c r="H22" s="63">
         <v>24</v>
       </c>
-      <c r="I22" s="67" t="s">
-        <v>154</v>
+      <c r="I22" s="66" t="s">
+        <v>153</v>
       </c>
       <c r="J22" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="K22" s="66" t="s">
+      <c r="K22" s="65" t="s">
         <v>144</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -4433,7 +4419,7 @@
         <v>143</v>
       </c>
       <c r="F23" s="62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G23" s="59" t="s">
         <v>7</v>
@@ -4441,13 +4427,13 @@
       <c r="H23" s="63">
         <v>8</v>
       </c>
-      <c r="I23" s="67" t="s">
-        <v>153</v>
+      <c r="I23" s="66" t="s">
+        <v>152</v>
       </c>
       <c r="J23" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="K23" s="66" t="s">
+      <c r="K23" s="65" t="s">
         <v>144</v>
       </c>
       <c r="L23" s="1" t="s">

--- a/bom/BOM_XY_STD.xlsx
+++ b/bom/BOM_XY_STD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{7AB44BD0-E2BA-4338-8728-1559E83C9B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BE589943-34DB-4954-A0D5-966B3251A6F0}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{7AB44BD0-E2BA-4338-8728-1559E83C9B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{72B39E02-27B5-487B-9D1A-93339FD3B02D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'From Fusion 360'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'From Fusion 360'!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="113">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -40,174 +40,108 @@
     <t>Vendor URL</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>MGN12C Block</t>
   </si>
   <si>
     <t>Buy</t>
   </si>
   <si>
-    <t>e373ffef0335429dbb0d2076bd0490d4</t>
-  </si>
-  <si>
     <t>MGN12 Rail</t>
   </si>
   <si>
-    <t>6cecde9afd9c46488b74f01bb7452f1e</t>
-  </si>
-  <si>
     <t>M3X10_CapScrew_92290A115</t>
   </si>
   <si>
     <t>Screw, Cap - M3X10mm</t>
   </si>
   <si>
-    <t>0cb37cee49c04c648a3d44daf949f2a4</t>
-  </si>
-  <si>
     <t>TrackX_2020Profile</t>
   </si>
   <si>
-    <t>e7d0949957284065bc2f383fc3de6dcf</t>
-  </si>
-  <si>
     <t>MGN12H Block</t>
   </si>
   <si>
-    <t>630e8ed682514ba290fc2ac1404b22d0</t>
-  </si>
-  <si>
-    <t>30a1546a053248d89d0fe572a1a54e08</t>
-  </si>
-  <si>
     <t>Make</t>
   </si>
   <si>
-    <t>4535e8c5ba964b5c8a79f14e461e9f3d</t>
-  </si>
-  <si>
     <t>MotorBracket_LEFT_Body (1)</t>
   </si>
   <si>
-    <t>377863e0d0dd430ba797ffa59b6f7249</t>
-  </si>
-  <si>
     <t>MotorCover_BODY_LEFT</t>
   </si>
   <si>
     <t>Motor Cover Left</t>
   </si>
   <si>
-    <t>f41d5695155c4633ac463ce4b7a3b6f2</t>
-  </si>
-  <si>
     <t>MR115ZZ_Bearing_7804K107</t>
   </si>
   <si>
     <t>Bearing, 5x11x4mm</t>
   </si>
   <si>
-    <t>e474876d2d514e7ead4b18056c9cbd6e</t>
-  </si>
-  <si>
     <t>M3X8_CapScrew_92290A113</t>
   </si>
   <si>
     <t>Screw, Cap - M3X8mm</t>
   </si>
   <si>
-    <t>bfff21ae6afb5cf5b9a9f7f1239d2c86</t>
-  </si>
-  <si>
     <t>Nema 17  Stepper Motor length 40mm</t>
   </si>
   <si>
-    <t>236a9a747ce37f9a7b8aae940d2007e8</t>
-  </si>
-  <si>
     <t>M5X10_ButtonHeadScrew_97763A820</t>
   </si>
   <si>
     <t>Screw, ButtonHead - M5X10mm</t>
   </si>
   <si>
-    <t>a590f63c8d6e4a809a2dce72cc40e6ba</t>
-  </si>
-  <si>
     <t>M3X30_CapScrew_92290A126</t>
   </si>
   <si>
     <t>Screw, Cap - M3X30mm</t>
   </si>
   <si>
-    <t>ea69f746d49b4d14917eefc49cd1bb83</t>
-  </si>
-  <si>
     <t>M3X20_CapScrew_92290A122</t>
   </si>
   <si>
     <t>Screw, Cap - M3X20mm</t>
   </si>
   <si>
-    <t>72d834994834410ebad1c1818b8025b6</t>
-  </si>
-  <si>
     <t>M6_TSlot_Nut</t>
   </si>
   <si>
     <t>Nut, T-Slot - M6 for 3030 profile</t>
   </si>
   <si>
-    <t>d318404ab0d6472dbc9eb43ee8c0e069</t>
-  </si>
-  <si>
     <t>M6X14_ButtonHeadScrew_92095A227</t>
   </si>
   <si>
     <t>Screw, ButtonHead - M6X14mm</t>
   </si>
   <si>
-    <t>e79cdc31a3e84973a286be9989152cf7</t>
-  </si>
-  <si>
     <t>PulleyMount_REAR_LEFT_Body</t>
   </si>
   <si>
     <t>Pulley Mount Rear Left</t>
   </si>
   <si>
-    <t>37561c10f4b743f5a8cc69bfb579be1d</t>
-  </si>
-  <si>
     <t>M3_Nut_94150A325</t>
   </si>
   <si>
     <t>Nut, Hex - M3</t>
   </si>
   <si>
-    <t>6e3ef5dfd99a4fa28abe82a7c0b059e4</t>
-  </si>
-  <si>
     <t>M3X12_CapScrew_92290A117</t>
   </si>
   <si>
     <t>Screw, Cap - M3X12mm</t>
   </si>
   <si>
-    <t>e6971c7dddd4489087852fcdb5a380b0</t>
-  </si>
-  <si>
     <t>PulleyMount_FRONT_LEFT_BodyV1.1</t>
   </si>
   <si>
     <t>Pulley Mount Front Left</t>
   </si>
   <si>
-    <t>866570b5b897438398e968e1229188c1</t>
-  </si>
-  <si>
     <t>Opto endstop PM</t>
   </si>
   <si>
@@ -217,108 +151,72 @@
     <t>AliExpress</t>
   </si>
   <si>
-    <t>37ae3e0660b16d0dba47ce09569758c1</t>
-  </si>
-  <si>
     <t>M3X25_CapScrew_92290A124</t>
   </si>
   <si>
     <t>Screw, Cap - M3X25mm</t>
   </si>
   <si>
-    <t>1ad76402ee94498d8088de0b395bad11</t>
-  </si>
-  <si>
     <t>HevORT LOGO_Small_Grey</t>
   </si>
   <si>
     <t>HevORT Logo, Small</t>
   </si>
   <si>
-    <t>257f1bc4d89f4e63b96e7fa3cde992e3</t>
-  </si>
-  <si>
     <t>PulleyMount_REAR_RIGHT_Body</t>
   </si>
   <si>
     <t>Pulley Mount Rear Right</t>
   </si>
   <si>
-    <t>8260da35996b4269887eaa3f484cf605</t>
-  </si>
-  <si>
     <t>PulleyMount_FRONT_RIGHT_BodyV1.1</t>
   </si>
   <si>
     <t>Pulley Mount Front Right</t>
   </si>
   <si>
-    <t>e1a05c66023744c2952d270168669626</t>
-  </si>
-  <si>
     <t>MotorBracket_RIGHT_Body V1.1</t>
   </si>
   <si>
     <t>Motor Bracket Right</t>
   </si>
   <si>
-    <t>6a032a33b721442181c737d2c357d016</t>
-  </si>
-  <si>
     <t>MotorCover_BODY_RIGHT</t>
   </si>
   <si>
     <t>Motor Cover Rght</t>
   </si>
   <si>
-    <t>3ef3ef9fd70a4f5b92dde241b03eabb3</t>
-  </si>
-  <si>
     <t>LowerBelt GT2 6mm</t>
   </si>
   <si>
     <t>GT2 6mm Belt</t>
   </si>
   <si>
-    <t>778280444eeb44998ffaed3954b94e72</t>
-  </si>
-  <si>
     <t>GT2 20T Pulley 3mm bore v1</t>
   </si>
   <si>
     <t>Pulley, Toothed - 20tooth GT2 6mm, 3mm bore</t>
   </si>
   <si>
-    <t>6cb1776be93cd2689845fbb06baf04e7</t>
-  </si>
-  <si>
     <t>GT2 Pulley Idler v3</t>
   </si>
   <si>
     <t>Pulley, Toothless - Eq 20 tooth GT2 6mm, 3mm bore</t>
   </si>
   <si>
-    <t>7664856766faa86297e4e39fd1d3264c</t>
-  </si>
-  <si>
     <t>GT2 Timing Pulley 20T 6mm - Hole_5mm v4</t>
   </si>
   <si>
     <t>Pulley, Timming - 20tooth GT2 6mm, 5mm bore</t>
   </si>
   <si>
-    <t>a9c3c42dc7435a550e0805b0356d9774</t>
-  </si>
-  <si>
     <t>UpperBelt GT2 6mm</t>
   </si>
   <si>
     <t>GT2 6mm</t>
   </si>
   <si>
-    <t>5b90c721769040e79bf91887220bf5df</t>
-  </si>
-  <si>
     <t>Y_Carriage_RIGHT_Body (1)</t>
   </si>
   <si>
@@ -331,54 +229,36 @@
     <t>https://www.thingiverse.com/thing:4184477</t>
   </si>
   <si>
-    <t>332e766925b949e7b09fb17da6e6fc2a</t>
-  </si>
-  <si>
     <t>M5X12_ButtonHeadScrew_91239A228</t>
   </si>
   <si>
     <t>Screw, ButtonHead - M5X12mm</t>
   </si>
   <si>
-    <t>aa2f28f0f86e49ef8d7ab3de3cb2b101</t>
-  </si>
-  <si>
     <t>M5X20_ButtonHeadScrew_91239A233</t>
   </si>
   <si>
     <t>Screw, ButtonHead - M5X20mm</t>
   </si>
   <si>
-    <t>1312937ce13449aab6ec0460203068f2</t>
-  </si>
-  <si>
     <t>M5X2020_T-Nut_91239A224</t>
   </si>
   <si>
     <t>Nut, T-Slot - M5 for 2020 profile</t>
   </si>
   <si>
-    <t>30b433583dcf47c0834c3340451b0405</t>
-  </si>
-  <si>
     <t>M3X6_CapScrew_92290A111</t>
   </si>
   <si>
     <t>Screw, Cap - M3X6mm</t>
   </si>
   <si>
-    <t>a3daae66fe74418e91c3738b1c9c0c4b</t>
-  </si>
-  <si>
     <t>M3X16_CapScrew_92290A120</t>
   </si>
   <si>
     <t>Screw, Cap - M3X16mm</t>
   </si>
   <si>
-    <t>9da8e196691a4c46938397f353fcb8d3</t>
-  </si>
-  <si>
     <t>Y_Carriage_LEFT_Body (1)</t>
   </si>
   <si>
@@ -388,9 +268,6 @@
     <t>Thingiverse</t>
   </si>
   <si>
-    <t>941cf2b2f8cf4b0ea6020435e8178e2d</t>
-  </si>
-  <si>
     <t>SubAssy</t>
   </si>
   <si>
@@ -458,9 +335,6 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/32917702848.html?spm=a2g0s.9042311.0.0.10194c4dtWXsMc</t>
-  </si>
-  <si>
-    <t>069175e752a89b48639d7e8c4b4fa7f8</t>
   </si>
   <si>
     <t>* See required length in the FrameCalculator: 
@@ -3704,36 +3578,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="85" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="84.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="2"/>
-    <col min="4" max="4" width="16.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.7265625" style="34" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.26953125" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="43.54296875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="38" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="2"/>
+    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" style="34" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="43.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -3742,16 +3615,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>3</v>
@@ -3759,13 +3632,10 @@
       <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="20"/>
@@ -3778,185 +3648,170 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="24">
         <v>1</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>7</v>
       </c>
       <c r="H3" s="37">
         <v>2</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="12"/>
-      <c r="L3" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="24">
         <v>2</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="24">
         <v>3</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="6" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="24">
         <v>4</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="37">
         <v>1</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="7" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="24">
         <v>5</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="8" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="24">
         <v>6</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="37">
         <v>2</v>
@@ -3964,61 +3819,55 @@
       <c r="I8" s="41"/>
       <c r="J8" s="9"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="9" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="24">
         <v>7</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="11" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9" s="37">
         <v>2</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="1" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="10" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="24">
         <v>8</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="11" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="37">
         <v>1</v>
@@ -4026,125 +3875,113 @@
       <c r="I10" s="41"/>
       <c r="J10" s="9"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="1" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="11" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="24">
         <v>9</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="11" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
-        <v>126</v>
-      </c>
       <c r="B12" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="24">
         <v>10</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="11" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" s="37">
         <v>6</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="1" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="13" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="24">
         <v>11</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="11" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" s="37">
         <v>4</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="1" t="s">
-        <v>91</v>
-      </c>
     </row>
-    <row r="14" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="24">
         <v>12</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="11" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H14" s="37">
         <v>2</v>
@@ -4152,61 +3989,55 @@
       <c r="I14" s="41"/>
       <c r="J14" s="9"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="1" t="s">
-        <v>94</v>
-      </c>
     </row>
-    <row r="15" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="24">
         <v>13</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="11" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="1" t="s">
-        <v>97</v>
-      </c>
     </row>
-    <row r="16" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C16" s="24">
         <v>14</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H16" s="37">
         <v>47</v>
@@ -4214,29 +4045,26 @@
       <c r="I16" s="41"/>
       <c r="J16" s="9"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="17" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C17" s="24">
         <v>15</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H17" s="37">
         <v>10</v>
@@ -4244,29 +4072,26 @@
       <c r="I17" s="41"/>
       <c r="J17" s="9"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="18" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C18" s="24">
         <v>16</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H18" s="37">
         <v>2</v>
@@ -4274,29 +4099,26 @@
       <c r="I18" s="41"/>
       <c r="J18" s="9"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="19" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C19" s="24">
         <v>17</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H19" s="37">
         <v>5</v>
@@ -4304,29 +4126,26 @@
       <c r="I19" s="41"/>
       <c r="J19" s="9"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="20" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="46" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C20" s="24">
         <v>18</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H20" s="38">
         <v>6</v>
@@ -4334,29 +4153,26 @@
       <c r="I20" s="44"/>
       <c r="J20" s="14"/>
       <c r="K20" s="47"/>
-      <c r="L20" s="1" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="21" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C21" s="24">
         <v>19</v>
       </c>
       <c r="D21" s="60"/>
       <c r="E21" s="61" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F21" s="62" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H21" s="63">
         <v>27</v>
@@ -4364,101 +4180,92 @@
       <c r="I21" s="64"/>
       <c r="J21" s="60"/>
       <c r="K21" s="60"/>
-      <c r="L21" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="22" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C22" s="24">
         <v>20</v>
       </c>
       <c r="D22" s="60"/>
       <c r="E22" s="61" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="F22" s="62" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="G22" s="59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H22" s="63">
         <v>24</v>
       </c>
       <c r="I22" s="66" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="J22" s="60" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="K22" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C23" s="24">
         <v>21</v>
       </c>
       <c r="D23" s="60"/>
       <c r="E23" s="61" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="F23" s="62" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="G23" s="59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H23" s="63">
         <v>8</v>
       </c>
       <c r="I23" s="66" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="J23" s="60" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="K23" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C24" s="24">
         <v>22</v>
       </c>
       <c r="D24" s="51"/>
       <c r="E24" s="52" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F24" s="53" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H24" s="54">
         <v>27</v>
@@ -4466,29 +4273,26 @@
       <c r="I24" s="55"/>
       <c r="J24" s="51"/>
       <c r="K24" s="56"/>
-      <c r="L24" s="1" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="25" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C25" s="24">
         <v>23</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="11" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H25" s="37">
         <v>15</v>
@@ -4496,29 +4300,26 @@
       <c r="I25" s="41"/>
       <c r="J25" s="9"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="1" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="26" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C26" s="24">
         <v>24</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="11" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H26" s="37">
         <v>2</v>
@@ -4526,29 +4327,26 @@
       <c r="I26" s="41"/>
       <c r="J26" s="9"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="27" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C27" s="24">
         <v>25</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="11" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H27" s="37">
         <v>5</v>
@@ -4556,29 +4354,26 @@
       <c r="I27" s="41"/>
       <c r="J27" s="9"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="1" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="28" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C28" s="24">
         <v>26</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="11" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H28" s="37">
         <v>4</v>
@@ -4586,29 +4381,26 @@
       <c r="I28" s="41"/>
       <c r="J28" s="9"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="1" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="29" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C29" s="24">
         <v>27</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="11" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H29" s="37">
         <v>2</v>
@@ -4616,29 +4408,26 @@
       <c r="I29" s="41"/>
       <c r="J29" s="9"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="1" t="s">
-        <v>108</v>
-      </c>
     </row>
-    <row r="30" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C30" s="24">
         <v>28</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="11" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H30" s="37">
         <v>6</v>
@@ -4646,29 +4435,26 @@
       <c r="I30" s="41"/>
       <c r="J30" s="9"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="1" t="s">
-        <v>111</v>
-      </c>
     </row>
-    <row r="31" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C31" s="24">
         <v>29</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="11" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H31" s="37">
         <v>4</v>
@@ -4676,29 +4462,26 @@
       <c r="I31" s="41"/>
       <c r="J31" s="9"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="1" t="s">
-        <v>114</v>
-      </c>
     </row>
-    <row r="32" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C32" s="24">
         <v>30</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="11" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H32" s="37">
         <v>4</v>
@@ -4706,416 +4489,377 @@
       <c r="I32" s="41"/>
       <c r="J32" s="9"/>
       <c r="K32" s="12"/>
-      <c r="L32" s="1" t="s">
-        <v>117</v>
-      </c>
     </row>
-    <row r="33" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C33" s="24">
         <v>31</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="11" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H33" s="37">
         <v>1</v>
       </c>
       <c r="I33" s="41"/>
       <c r="J33" s="9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C34" s="24">
         <v>32</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H34" s="37">
         <v>1</v>
       </c>
       <c r="I34" s="41"/>
       <c r="J34" s="9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C35" s="24">
         <v>33</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H35" s="37">
         <v>1</v>
       </c>
       <c r="I35" s="41"/>
       <c r="J35" s="9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C36" s="24">
         <v>34</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="11" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H36" s="37">
         <v>1</v>
       </c>
       <c r="I36" s="41"/>
       <c r="J36" s="9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C37" s="24">
         <v>35</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="11" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H37" s="37">
         <v>1</v>
       </c>
       <c r="I37" s="41"/>
       <c r="J37" s="9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C38" s="24">
         <v>36</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="11" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H38" s="37">
         <v>1</v>
       </c>
       <c r="I38" s="41"/>
       <c r="J38" s="9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="K38" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C39" s="24">
         <v>37</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="11" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H39" s="37">
         <v>1</v>
       </c>
       <c r="I39" s="41"/>
       <c r="J39" s="9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C40" s="24">
         <v>38</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="11" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H40" s="37">
         <v>1</v>
       </c>
       <c r="I40" s="41"/>
       <c r="J40" s="9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C41" s="24">
         <v>39</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="11" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="F41" s="31" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H41" s="37">
         <v>1</v>
       </c>
       <c r="I41" s="41"/>
       <c r="J41" s="9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C42" s="24">
         <v>40</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="11" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H42" s="37">
         <v>1</v>
       </c>
       <c r="I42" s="41"/>
       <c r="J42" s="9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C43" s="24">
         <v>41</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="11" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="F43" s="31" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H43" s="37">
         <v>1</v>
       </c>
       <c r="I43" s="41"/>
       <c r="J43" s="9" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C44" s="24">
         <v>42</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="16" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H44" s="38">
         <v>1</v>
       </c>
       <c r="I44" s="44"/>
       <c r="J44" s="14" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/bom/BOM_XY_STD.xlsx
+++ b/bom/BOM_XY_STD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{7AB44BD0-E2BA-4338-8728-1559E83C9B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{72B39E02-27B5-487B-9D1A-93339FD3B02D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398C37BC-20B5-4F56-BA6D-1DDF7E987E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3576,29 +3576,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="84.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="85" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="2"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="43.5703125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="10.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="2"/>
+    <col min="4" max="4" width="16.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7265625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.26953125" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="43.54296875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>81</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>90</v>
       </c>
@@ -3648,7 +3648,7 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>85</v>
       </c>
@@ -3677,7 +3677,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
         <v>85</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>85</v>
       </c>
@@ -3735,7 +3735,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
         <v>85</v>
       </c>
@@ -3764,7 +3764,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
         <v>85</v>
       </c>
@@ -3793,7 +3793,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
         <v>85</v>
       </c>
@@ -3820,7 +3820,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25" t="s">
         <v>85</v>
       </c>
@@ -3849,7 +3849,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
         <v>85</v>
       </c>
@@ -3876,7 +3876,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
         <v>85</v>
       </c>
@@ -3905,7 +3905,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
         <v>85</v>
       </c>
@@ -3934,7 +3934,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
         <v>85</v>
       </c>
@@ -3963,7 +3963,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
         <v>85</v>
       </c>
@@ -3990,7 +3990,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
         <v>85</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
         <v>85</v>
       </c>
@@ -4040,13 +4040,13 @@
         <v>6</v>
       </c>
       <c r="H16" s="37">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I16" s="41"/>
       <c r="J16" s="9"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
         <v>85</v>
       </c>
@@ -4067,13 +4067,13 @@
         <v>6</v>
       </c>
       <c r="H17" s="37">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I17" s="41"/>
       <c r="J17" s="9"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
         <v>85</v>
       </c>
@@ -4100,7 +4100,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
         <v>85</v>
       </c>
@@ -4127,7 +4127,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="46" t="s">
         <v>85</v>
       </c>
@@ -4154,7 +4154,7 @@
       <c r="J20" s="14"/>
       <c r="K20" s="47"/>
     </row>
-    <row r="21" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="57" t="s">
         <v>85</v>
       </c>
@@ -4181,7 +4181,7 @@
       <c r="J21" s="60"/>
       <c r="K21" s="60"/>
     </row>
-    <row r="22" spans="1:11" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="57" t="s">
         <v>85</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="57" t="s">
         <v>85</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="48" t="s">
         <v>85</v>
       </c>
@@ -4274,7 +4274,7 @@
       <c r="J24" s="51"/>
       <c r="K24" s="56"/>
     </row>
-    <row r="25" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
         <v>85</v>
       </c>
@@ -4301,7 +4301,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="25" t="s">
         <v>85</v>
       </c>
@@ -4328,7 +4328,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="25" t="s">
         <v>85</v>
       </c>
@@ -4355,7 +4355,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="25" t="s">
         <v>85</v>
       </c>
@@ -4382,7 +4382,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="25" t="s">
         <v>85</v>
       </c>
@@ -4409,7 +4409,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="25" t="s">
         <v>85</v>
       </c>
@@ -4436,7 +4436,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
         <v>85</v>
       </c>
@@ -4463,7 +4463,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
         <v>85</v>
       </c>
@@ -4490,7 +4490,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
         <v>85</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="25" t="s">
         <v>85</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="25" t="s">
         <v>85</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="25" t="s">
         <v>85</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="25" t="s">
         <v>85</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="25" t="s">
         <v>85</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="s">
         <v>85</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="25" t="s">
         <v>85</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="25" t="s">
         <v>85</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="25" t="s">
         <v>85</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="25" t="s">
         <v>85</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="25" t="s">
         <v>85</v>
       </c>

--- a/bom/BOM_XY_STD.xlsx
+++ b/bom/BOM_XY_STD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398C37BC-20B5-4F56-BA6D-1DDF7E987E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7D16F4-B5D2-488A-90E4-FB8E419EBE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="38380" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="115">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -332,9 +332,6 @@
   </si>
   <si>
     <t>M3X2020_T-Nut</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/32917702848.html?spm=a2g0s.9042311.0.0.10194c4dtWXsMc</t>
   </si>
   <si>
     <t>* See required length in the FrameCalculator: 
@@ -431,6 +428,15 @@
       </rPr>
       <t>_TSlot_Nut</t>
     </r>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_ALOsHe</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_AL5GuY</t>
+  </si>
+  <si>
+    <t>https://s.click.aliexpress.com/e/_A1wo9I</t>
   </si>
 </sst>
 </file>
@@ -816,7 +822,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1010,11 +1016,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3579,7 +3588,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="85" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3701,7 +3710,7 @@
         <v>92</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="12"/>
@@ -3730,7 +3739,7 @@
         <v>91</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="12"/>
@@ -3788,7 +3797,7 @@
         <v>91</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="12"/>
@@ -3835,7 +3844,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>6</v>
@@ -3900,7 +3909,7 @@
         <v>91</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="12"/>
@@ -3929,7 +3938,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="12"/>
@@ -3958,7 +3967,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="12"/>
@@ -4014,10 +4023,12 @@
         <v>91</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J15" s="9"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="13" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
@@ -4193,10 +4204,10 @@
       </c>
       <c r="D22" s="60"/>
       <c r="E22" s="61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" s="59" t="s">
         <v>6</v>
@@ -4204,14 +4215,14 @@
       <c r="H22" s="63">
         <v>24</v>
       </c>
-      <c r="I22" s="66" t="s">
-        <v>111</v>
+      <c r="I22" s="65" t="s">
+        <v>110</v>
       </c>
       <c r="J22" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="65" t="s">
-        <v>103</v>
+      <c r="K22" s="66" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4229,7 +4240,7 @@
         <v>102</v>
       </c>
       <c r="F23" s="62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G23" s="59" t="s">
         <v>6</v>
@@ -4237,14 +4248,14 @@
       <c r="H23" s="63">
         <v>8</v>
       </c>
-      <c r="I23" s="66" t="s">
-        <v>110</v>
+      <c r="I23" s="65" t="s">
+        <v>109</v>
       </c>
       <c r="J23" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="65" t="s">
-        <v>103</v>
+      <c r="K23" s="67" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="85" customHeight="1" x14ac:dyDescent="0.35">
@@ -4877,17 +4888,18 @@
     <hyperlink ref="K34" r:id="rId10" xr:uid="{5D02B5D1-9B4B-4118-BBB1-12C3533E80A9}"/>
     <hyperlink ref="K33" r:id="rId11" xr:uid="{4A79BDF9-F47F-4077-A70A-2A696058AE3F}"/>
     <hyperlink ref="K38" r:id="rId12" xr:uid="{857D2E6F-BCB3-467B-8E6B-244BC41297A1}"/>
-    <hyperlink ref="K23" r:id="rId13" xr:uid="{8DB846CD-1626-41CC-98C6-40A12BDCBEF2}"/>
-    <hyperlink ref="K22" r:id="rId14" xr:uid="{D277D421-9A0A-498B-BCCB-71EF73FA8271}"/>
+    <hyperlink ref="K15" r:id="rId13" xr:uid="{7AB47F98-5E68-4A37-9A52-F77FFF653CCE}"/>
+    <hyperlink ref="K22" r:id="rId14" xr:uid="{44F330EF-9AAF-436A-A937-0B77B9484881}"/>
+    <hyperlink ref="K23" r:id="rId15" xr:uid="{21DA7143-794F-40BB-8BDE-BEB7B70E51AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId15"/>
-  <drawing r:id="rId16"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId16"/>
+  <drawing r:id="rId17"/>
   <webPublishItems count="1">
     <webPublishItem id="21161" divId="BOM_XY_STD_21161" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_XY_STD.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>